--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27218"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_92488BC504E3F6C36C3E1A39993E8C1851038387" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D8B1085-96C8-460E-8BC8-C268C891FEEB}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerbi\Documents\GitHub\testexcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>new_tag</t>
   </si>
@@ -54,9 +58,6 @@
     <t>book</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>base_tag</t>
   </si>
   <si>
@@ -73,13 +74,43 @@
   </si>
   <si>
     <t>base_net</t>
+  </si>
+  <si>
+    <t>HypnoS 241223</t>
+  </si>
+  <si>
+    <t>nn-0000000000a0.nnue</t>
+  </si>
+  <si>
+    <t>nn-fa57bea57555.nnue</t>
+  </si>
+  <si>
+    <t>Tweak quiet move bonus</t>
+  </si>
+  <si>
+    <t>Root_pv</t>
+  </si>
+  <si>
+    <t>15+0.25</t>
+  </si>
+  <si>
+    <t>2moves_v1.pgn</t>
+  </si>
+  <si>
+    <t>2 moves</t>
+  </si>
+  <si>
+    <t>HypnoS 271223</t>
+  </si>
+  <si>
+    <t>total games</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +123,27 @@
       <color rgb="FF212529"/>
       <name val="System-Ui"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1F2328"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,9 +166,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -430,76 +491,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1336937</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="4" spans="1:8" ht="18.75">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1418823</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="D4" s="1" t="s">
-        <v>13</v>
+    <row r="5" spans="1:8" ht="18.75">
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="C5" s="1"/>
+    <row r="6" spans="1:8" ht="18.75">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="H14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>